--- a/bin/Debug/net8.0-windows/bookOld.xlsx
+++ b/bin/Debug/net8.0-windows/bookOld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ExcelTextReplacer\bin\Debug\net8.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kloshar\programming\ExcelTextReplacer\bin\Debug\net8.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D80C56-835B-4548-87FA-8CE7FA8A6290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3616B4-CC28-4C3C-B927-7A235BEAAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" xr2:uid="{EA25952D-A024-4970-BCCD-3DD57D7BA55B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EA25952D-A024-4970-BCCD-3DD57D7BA55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Плановая2" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>yz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>we</t>
-    </r>
+    <t>abcdef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +58,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -472,12 +430,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.875" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/bin/Debug/net8.0-windows/bookOld.xlsx
+++ b/bin/Debug/net8.0-windows/bookOld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kloshar\programming\ExcelTextReplacer\bin\Debug\net8.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ExcelTextReplacer\bin\Debug\net8.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3616B4-CC28-4C3C-B927-7A235BEAAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2B8AF-D839-4C68-BC96-AECDCA3D7670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EA25952D-A024-4970-BCCD-3DD57D7BA55B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" xr2:uid="{EA25952D-A024-4970-BCCD-3DD57D7BA55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Плановая2" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>abcdef</t>
+    <t>abcde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,14 +428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39210354-86BC-476D-BB2E-FACD51380237}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="71.85546875" customWidth="1"/>
+    <col min="1" max="1" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/bin/Debug/net8.0-windows/bookOld.xlsx
+++ b/bin/Debug/net8.0-windows/bookOld.xlsx
@@ -1,25 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ExcelTextReplacer\bin\Debug\net8.0-windows\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2B8AF-D839-4C68-BC96-AECDCA3D7670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38195F9C-D966-4F2B-A1C4-137D6ABAAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" xr2:uid="{EA25952D-A024-4970-BCCD-3DD57D7BA55B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" tabRatio="999" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Плановая2" sheetId="1" r:id="rId1"/>
+    <sheet name="Плановая2" sheetId="93" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TR10B">#REF!</definedName>
+    <definedName name="TR10EXP">#REF!</definedName>
+    <definedName name="TR10PSZ">#REF!</definedName>
+    <definedName name="TR10S">#REF!</definedName>
+    <definedName name="TR10ST">#REF!</definedName>
+    <definedName name="TR10Y">#REF!</definedName>
+    <definedName name="TR11B">#REF!</definedName>
+    <definedName name="TR11PSZ">#REF!</definedName>
+    <definedName name="TR11S">#REF!</definedName>
+    <definedName name="TR11ST">#REF!</definedName>
+    <definedName name="TR11Y">#REF!</definedName>
+    <definedName name="TR12B">#REF!</definedName>
+    <definedName name="TR12EXP">#REF!</definedName>
+    <definedName name="TR12PSZ">#REF!</definedName>
+    <definedName name="TR12S">#REF!</definedName>
+    <definedName name="TR12ST">#REF!</definedName>
+    <definedName name="TR12Y">#REF!</definedName>
+    <definedName name="TR15B">#REF!</definedName>
+    <definedName name="TR15EXP">#REF!</definedName>
+    <definedName name="TR15PSZ">#REF!</definedName>
+    <definedName name="TR15S">#REF!</definedName>
+    <definedName name="TR15ST">#REF!</definedName>
+    <definedName name="TR15Y">#REF!</definedName>
+    <definedName name="TR1EXP">#REF!</definedName>
+    <definedName name="TR20B">#REF!</definedName>
+    <definedName name="TR20EXP">#REF!</definedName>
+    <definedName name="TR20PSZ">#REF!</definedName>
+    <definedName name="TR20S">#REF!</definedName>
+    <definedName name="TR20ST">#REF!</definedName>
+    <definedName name="TR20Y">#REF!</definedName>
+    <definedName name="TR21Y">#REF!</definedName>
+    <definedName name="TR23B">#REF!</definedName>
+    <definedName name="TR23EXP">#REF!</definedName>
+    <definedName name="TR23PSZ">#REF!</definedName>
+    <definedName name="TR23S">#REF!</definedName>
+    <definedName name="TR23ST">#REF!</definedName>
+    <definedName name="TR23Y">#REF!</definedName>
+    <definedName name="TR8B">#REF!</definedName>
+    <definedName name="TR8EXP">#REF!</definedName>
+    <definedName name="TR8PSZ">#REF!</definedName>
+    <definedName name="TR8S">#REF!</definedName>
+    <definedName name="TR8ST">#REF!</definedName>
+    <definedName name="TR8Y">#REF!</definedName>
+    <definedName name="TR9B">#REF!</definedName>
+    <definedName name="TR9EXP">#REF!</definedName>
+    <definedName name="TR9PSZ">#REF!</definedName>
+    <definedName name="TR9S">#REF!</definedName>
+    <definedName name="TR9ST">#REF!</definedName>
+    <definedName name="TR9Y">#REF!</definedName>
+    <definedName name="TRUD1">#REF!</definedName>
+    <definedName name="TRUD1_EXP">#REF!</definedName>
+    <definedName name="год">#REF!</definedName>
+    <definedName name="зарплата">#REF!</definedName>
+    <definedName name="название">Плановая2!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Плановая2!$A$1:$H$2</definedName>
+    <definedName name="стоимость_нормочаса">#REF!</definedName>
+    <definedName name="юбь">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,20 +85,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>abcde</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Цена 
+продукции (без НДС)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(сумма строк 1700, 1800)</x:t>
+    </x:r>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_)"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -55,6 +122,89 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -64,16 +214,77 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -81,23 +292,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" applyProtection="0"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" applyProtection="0"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="3" applyProtection="0"/>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="3" applyProtection="0"/>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="3" applyProtection="0"/>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="3" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="3" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="45">
+    <cellStyle name="_CPI foodimp" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_macro 2012 var 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_v-2013-2030- 2b17.01.11Нах-cpiнов. курс inn 1-2-Е1xls" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_Модель - 2(23)" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_Сб-macro 2020" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Euro" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_macro 2012 var 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="styleColumnTitles" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="styleDateRange" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="styleHidden" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="styleNormal" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="styleSeriesAttributes" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="styleSeriesData" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="styleSeriesDataForecast" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="styleSeriesDataForecastNA" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="styleSeriesDataNA" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{4624EC15-DFB7-45A8-8C30-3B80D6449403}"/>
+    <cellStyle name="Обычный 10" xfId="36" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Обычный 11" xfId="41" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Обычный 12" xfId="43" xr:uid="{6CE7B070-3384-8B40-887D-690A98278F0F}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Обычный 2 2 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Обычный 2 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Обычный 2 5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Обычный 2 6" xfId="25" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Обычный 2 7" xfId="44" xr:uid="{62087A8C-E269-7D46-A386-D1A372C543CB}"/>
+    <cellStyle name="Обычный 2_ТЭП-ВНИИЭФ-12-13 -апрель 2013" xfId="26" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Обычный 27" xfId="27" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Обычный 4" xfId="28" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Обычный 5" xfId="29" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Обычный 5 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Обычный 5 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Обычный 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Обычный 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Обычный 8" xfId="39" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Обычный 9" xfId="40" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Стиль 1" xfId="35" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFD8F159"/>
+      <color rgb="FFD690C9"/>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FFCFA231"/>
+      <color rgb="FFCC0099"/>
+      <color rgb="FF4F73E7"/>
+      <color rgb="FF315BE3"/>
+      <color rgb="FF81A650"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,44 +550,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,31 +615,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -237,23 +650,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -315,6 +711,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -323,13 +726,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -394,56 +790,63 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39210354-86BC-476D-BB2E-FACD51380237}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Лист2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="0.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="0.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>